--- a/example/game_02_click_cookies/producers.xlsx
+++ b/example/game_02_click_cookies/producers.xlsx
@@ -559,7 +559,7 @@
         <v>Grandma</v>
       </c>
       <c r="F5" t="str">
-        <v>奶奶烘焙饼干，每个 +1 CPS。</v>
+        <v>奶奶烘焙饼干，每个约 +0.6 CPS。</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -568,7 +568,7 @@
         <v>1.15</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J5" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f475.png</v>
@@ -594,7 +594,7 @@
         <v>Farm</v>
       </c>
       <c r="F6" t="str">
-        <v>种植饼干树，每个 +8 CPS。</v>
+        <v>种植饼干树，每个约 +6.5 CPS。</v>
       </c>
       <c r="G6">
         <v>1100</v>
@@ -603,7 +603,7 @@
         <v>1.15</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f33e.png</v>
@@ -629,7 +629,7 @@
         <v>Mine</v>
       </c>
       <c r="F7" t="str">
-        <v>开采饼干矿脉，每个 +47 CPS。</v>
+        <v>开采饼干矿脉，每个约 +65 CPS。</v>
       </c>
       <c r="G7">
         <v>12000</v>
@@ -638,7 +638,7 @@
         <v>1.15</v>
       </c>
       <c r="I7">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="J7" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/26cf.png</v>
@@ -664,7 +664,7 @@
         <v>Factory</v>
       </c>
       <c r="F8" t="str">
-        <v>批量生产饼干，每个 +260 CPS。</v>
+        <v>批量生产饼干，每个约 +650 CPS。</v>
       </c>
       <c r="G8">
         <v>130000</v>
@@ -673,7 +673,7 @@
         <v>1.15</v>
       </c>
       <c r="I8">
-        <v>260</v>
+        <v>650</v>
       </c>
       <c r="J8" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f3ed.png</v>
@@ -699,7 +699,7 @@
         <v>Bank</v>
       </c>
       <c r="F9" t="str">
-        <v>资本运作，每个 +1400 CPS。</v>
+        <v>资本运作，每个约 +7000 CPS。</v>
       </c>
       <c r="G9">
         <v>1400000</v>
@@ -708,7 +708,7 @@
         <v>1.15</v>
       </c>
       <c r="I9">
-        <v>1400</v>
+        <v>7000</v>
       </c>
       <c r="J9" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f3e6.png</v>
@@ -734,7 +734,7 @@
         <v>Temple</v>
       </c>
       <c r="F10" t="str">
-        <v>奶奶祈祷，每个 +7800 CPS。</v>
+        <v>奶奶祈祷，每个约 +85K CPS。</v>
       </c>
       <c r="G10">
         <v>20000000</v>
@@ -743,7 +743,7 @@
         <v>1.15</v>
       </c>
       <c r="I10">
-        <v>7800</v>
+        <v>85000</v>
       </c>
       <c r="J10" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f3db.png</v>
@@ -769,7 +769,7 @@
         <v>Wizard Tower</v>
       </c>
       <c r="F11" t="str">
-        <v>魔法师召唤饼干，每个 +44K CPS。</v>
+        <v>魔法师召唤饼干，每个约 +1.2M CPS。</v>
       </c>
       <c r="G11">
         <v>330000000</v>
@@ -778,7 +778,7 @@
         <v>1.15</v>
       </c>
       <c r="I11">
-        <v>44000</v>
+        <v>1200000</v>
       </c>
       <c r="J11" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f52e.png</v>
@@ -804,7 +804,7 @@
         <v>Shipment</v>
       </c>
       <c r="F12" t="str">
-        <v>宇宙运输，每个 +260K CPS。</v>
+        <v>宇宙运输，每个约 +18M CPS。</v>
       </c>
       <c r="G12">
         <v>5100000000</v>
@@ -813,7 +813,7 @@
         <v>1.15</v>
       </c>
       <c r="I12">
-        <v>260000</v>
+        <v>18000000</v>
       </c>
       <c r="J12" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f6f8.png</v>
@@ -839,7 +839,7 @@
         <v>Portal</v>
       </c>
       <c r="F13" t="str">
-        <v>跨维度门户，每个 +1.6M CPS。</v>
+        <v>跨维度门户，每个约 +260M CPS。</v>
       </c>
       <c r="G13">
         <v>75000000000</v>
@@ -848,7 +848,7 @@
         <v>1.15</v>
       </c>
       <c r="I13">
-        <v>1600000</v>
+        <v>260000000</v>
       </c>
       <c r="J13" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f300.png</v>
@@ -874,7 +874,7 @@
         <v>Time Machine</v>
       </c>
       <c r="F14" t="str">
-        <v>扭曲时间，每个 +10M CPS。</v>
+        <v>扭曲时间，每个约 +3.2B CPS。</v>
       </c>
       <c r="G14">
         <v>1000000000000</v>
@@ -883,7 +883,7 @@
         <v>1.15</v>
       </c>
       <c r="I14">
-        <v>10000000</v>
+        <v>3200000000</v>
       </c>
       <c r="J14" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/23f2.png</v>
@@ -909,7 +909,7 @@
         <v>Antimatter Condenser</v>
       </c>
       <c r="F15" t="str">
-        <v>凝聚物质，每个 +65M CPS。</v>
+        <v>凝聚物质，每个约 +42B CPS。</v>
       </c>
       <c r="G15">
         <v>14000000000000</v>
@@ -918,7 +918,7 @@
         <v>1.15</v>
       </c>
       <c r="I15">
-        <v>65000000</v>
+        <v>42000000000</v>
       </c>
       <c r="J15" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/2728.png</v>
